--- a/basicos_resultados_BEBÉ NIÑO.xlsx
+++ b/basicos_resultados_BEBÉ NIÑO.xlsx
@@ -3376,11 +3376,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="141">
@@ -3397,11 +3397,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="142">
@@ -3409,7 +3409,7 @@
         <v>45017</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3418,11 +3418,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="143">
@@ -3430,7 +3430,7 @@
         <v>45017</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3439,11 +3439,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="144">
@@ -3451,7 +3451,7 @@
         <v>45047</v>
       </c>
       <c r="B144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3460,11 +3460,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="145">
@@ -3472,7 +3472,7 @@
         <v>45078</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3481,11 +3481,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146">
@@ -3493,7 +3493,7 @@
         <v>45108</v>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="147">
@@ -3514,7 +3514,7 @@
         <v>45139</v>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="148">
@@ -3535,7 +3535,7 @@
         <v>45170</v>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="149">
@@ -3556,7 +3556,7 @@
         <v>45200</v>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="150">
@@ -3577,7 +3577,7 @@
         <v>45231</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="151">
@@ -3598,7 +3598,7 @@
         <v>45261</v>
       </c>
       <c r="B151" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3607,11 +3607,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="152">
@@ -3619,7 +3619,7 @@
         <v>45292</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="153">
@@ -3640,7 +3640,7 @@
         <v>45323</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3649,11 +3649,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="154">
@@ -3670,19 +3670,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3691,19 +3689,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3712,19 +3708,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3733,19 +3727,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B158" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3754,19 +3746,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3775,19 +3765,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3796,19 +3784,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3817,19 +3803,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3838,19 +3822,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3859,19 +3841,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3880,19 +3860,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B165" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3901,19 +3879,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>0.2</v>
-      </c>
+          <t>CAÑA CORTA</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3922,19 +3898,19 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3943,16 +3919,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B168" t="n">
         <v>2</v>
@@ -3973,7 +3949,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3994,10 +3970,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4015,10 +3991,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4036,10 +4012,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4057,10 +4033,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B173" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4078,10 +4054,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4099,7 +4075,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B175" t="n">
         <v>5</v>
@@ -4120,10 +4096,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4141,10 +4117,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4162,10 +4138,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4183,10 +4159,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4204,7 +4180,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -4216,16 +4192,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -4237,16 +4213,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B182" t="n">
         <v>2</v>
@@ -4258,17 +4234,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
         <v>45017</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4277,17 +4255,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4296,17 +4276,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4315,17 +4297,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
         <v>45108</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4334,17 +4318,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
         <v>45139</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4353,10 +4339,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -4372,17 +4360,19 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
         <v>45200</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4391,17 +4381,19 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4410,17 +4402,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
         <v>45261</v>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4429,10 +4423,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -4448,10 +4444,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -4467,17 +4465,19 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
+          <t>CAMISA MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4486,11 +4486,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="195">
@@ -4498,7 +4498,7 @@
         <v>44986</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4507,11 +4507,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="196">
@@ -4528,11 +4528,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="197">
@@ -4549,11 +4549,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="198">
@@ -4561,7 +4561,7 @@
         <v>45047</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4570,11 +4570,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="199">
@@ -4591,11 +4591,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="200">
@@ -4603,7 +4603,7 @@
         <v>45108</v>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4612,11 +4612,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="201">
@@ -4624,7 +4624,7 @@
         <v>45139</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4633,11 +4633,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="202">
@@ -4645,7 +4645,7 @@
         <v>45170</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4654,11 +4654,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="203">
@@ -4666,7 +4666,7 @@
         <v>45200</v>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4675,11 +4675,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="204">
@@ -4687,7 +4687,7 @@
         <v>45231</v>
       </c>
       <c r="B204" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4696,11 +4696,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="205">
@@ -4708,7 +4708,7 @@
         <v>45261</v>
       </c>
       <c r="B205" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4717,11 +4717,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="206">
@@ -4729,7 +4729,7 @@
         <v>45292</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4738,11 +4738,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="207">
@@ -4750,7 +4750,7 @@
         <v>45323</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4759,11 +4759,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="208">
